--- a/out/test/Figori_algorithm_6.xlsx
+++ b/out/test/Figori_algorithm_6.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.70304999999999995</v>
+        <v>0.69920000000000004</v>
       </c>
       <c r="B1">
-        <v>0.68735000000000002</v>
+        <v>0.45774999999999999</v>
       </c>
       <c r="C1">
-        <v>0.45665</v>
+        <v>0.68530000000000002</v>
       </c>
       <c r="D1">
-        <v>0.70474999999999999</v>
+        <v>0.67354999999999998</v>
       </c>
       <c r="E1">
-        <v>0.68515000000000004</v>
+        <v>0.68745000000000001</v>
       </c>
       <c r="F1">
-        <v>0.70404999999999995</v>
+        <v>0.67964999999999998</v>
       </c>
       <c r="G1">
-        <v>0.45479999999999998</v>
+        <v>0.69989999999999997</v>
       </c>
       <c r="H1">
-        <v>0.68035000000000001</v>
+        <v>0.45760000000000001</v>
       </c>
       <c r="I1">
-        <v>0.68920000000000003</v>
+        <v>0.70884999999999998</v>
       </c>
       <c r="J1">
-        <v>0.68554999999999999</v>
+        <v>0.70589999999999997</v>
       </c>
       <c r="K1">
-        <v>0.45884999999999998</v>
+        <v>0.45179999999999998</v>
       </c>
       <c r="L1">
-        <v>0.70960000000000001</v>
+        <v>0.70125000000000004</v>
       </c>
       <c r="M1">
+        <v>0.70035000000000003</v>
+      </c>
+      <c r="N1">
+        <v>0.69745000000000001</v>
+      </c>
+      <c r="O1">
+        <v>0.70430000000000004</v>
+      </c>
+      <c r="P1">
+        <v>0.68620000000000003</v>
+      </c>
+      <c r="Q1">
+        <v>0.68689999999999996</v>
+      </c>
+      <c r="R1">
+        <v>0.70865</v>
+      </c>
+      <c r="S1">
+        <v>0.70494999999999997</v>
+      </c>
+      <c r="T1">
+        <v>0.70220000000000005</v>
+      </c>
+      <c r="U1">
+        <v>0.67164999999999997</v>
+      </c>
+      <c r="V1">
+        <v>0.70635000000000003</v>
+      </c>
+      <c r="W1">
+        <v>0.68420000000000003</v>
+      </c>
+      <c r="X1">
+        <v>0.68310000000000004</v>
+      </c>
+      <c r="Y1">
+        <v>0.45674999999999999</v>
+      </c>
+      <c r="Z1">
+        <v>0.68379999999999996</v>
+      </c>
+      <c r="AA1">
+        <v>0.70004999999999995</v>
+      </c>
+      <c r="AB1">
+        <v>0.68489999999999995</v>
+      </c>
+      <c r="AC1">
+        <v>0.69035000000000002</v>
+      </c>
+      <c r="AD1">
         <v>0.70579999999999998</v>
       </c>
-      <c r="N1">
-        <v>0.45255000000000001</v>
-      </c>
-      <c r="O1">
-        <v>0.67789999999999995</v>
-      </c>
-      <c r="P1">
-        <v>0.68730000000000002</v>
-      </c>
-      <c r="Q1">
-        <v>0.68525000000000003</v>
-      </c>
-      <c r="R1">
-        <v>0.68889999999999996</v>
-      </c>
-      <c r="S1">
-        <v>0.45639999999999997</v>
-      </c>
-      <c r="T1">
-        <v>0.70479999999999998</v>
-      </c>
-      <c r="U1">
-        <v>0.68605000000000005</v>
-      </c>
-      <c r="V1">
-        <v>0.68340000000000001</v>
-      </c>
-      <c r="W1">
-        <v>0.70104999999999995</v>
-      </c>
-      <c r="X1">
-        <v>0.68574999999999997</v>
-      </c>
-      <c r="Y1">
-        <v>0.70025000000000004</v>
-      </c>
-      <c r="Z1">
-        <v>0.69240000000000002</v>
-      </c>
-      <c r="AA1">
-        <v>0.68579999999999997</v>
-      </c>
-      <c r="AB1">
-        <v>0.68074999999999997</v>
-      </c>
-      <c r="AC1">
-        <v>0.69920000000000004</v>
-      </c>
-      <c r="AD1">
-        <v>0.70320000000000005</v>
-      </c>
       <c r="AE1">
-        <v>0.70245000000000002</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="AF1">
-        <v>0.45484999999999998</v>
+        <v>0.45495000000000002</v>
       </c>
       <c r="AG1">
-        <v>0.69820000000000004</v>
+        <v>0.68994999999999995</v>
       </c>
       <c r="AH1">
-        <v>0.70279999999999998</v>
+        <v>0.70330000000000004</v>
       </c>
       <c r="AI1">
-        <v>0.67849999999999999</v>
+        <v>0.45234999999999997</v>
       </c>
       <c r="AJ1">
-        <v>0.68689999999999996</v>
+        <v>0.70904999999999996</v>
       </c>
       <c r="AK1">
-        <v>0.70325000000000004</v>
+        <v>0.70340000000000003</v>
       </c>
       <c r="AL1">
-        <v>0.70494999999999997</v>
+        <v>0.69940000000000002</v>
       </c>
       <c r="AM1">
-        <v>0.70115000000000005</v>
+        <v>0.69115000000000004</v>
       </c>
       <c r="AN1">
-        <v>0.69435000000000002</v>
+        <v>0.68454999999999999</v>
       </c>
       <c r="AO1">
-        <v>0.68735000000000002</v>
+        <v>0.45674999999999999</v>
       </c>
       <c r="AP1">
-        <v>0.70620000000000005</v>
+        <v>0.68264999999999998</v>
       </c>
       <c r="AQ1">
-        <v>0.70265</v>
+        <v>0.68830000000000002</v>
       </c>
       <c r="AR1">
-        <v>0.70084999999999997</v>
+        <v>0.70979999999999999</v>
       </c>
       <c r="AS1">
-        <v>0.68589999999999995</v>
+        <v>0.69155</v>
       </c>
       <c r="AT1">
-        <v>0.70635000000000003</v>
+        <v>0.7016</v>
       </c>
       <c r="AU1">
-        <v>0.69045000000000001</v>
+        <v>0.45240000000000002</v>
       </c>
       <c r="AV1">
-        <v>0.45645000000000002</v>
+        <v>0.68694999999999995</v>
       </c>
       <c r="AW1">
-        <v>0.7036</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="AX1">
-        <v>0.67769999999999997</v>
+        <v>0.67830000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.69035000000000002</v>
+        <v>0.67769999999999997</v>
       </c>
       <c r="B2">
-        <v>0.67710000000000004</v>
+        <v>0.43519999999999998</v>
       </c>
       <c r="C2">
-        <v>0.43009999999999998</v>
+        <v>0.67220000000000002</v>
       </c>
       <c r="D2">
-        <v>0.69610000000000005</v>
+        <v>0.66344999999999998</v>
       </c>
       <c r="E2">
-        <v>0.64664999999999995</v>
+        <v>0.65839999999999999</v>
       </c>
       <c r="F2">
-        <v>0.94430000000000003</v>
+        <v>0.6623</v>
       </c>
       <c r="G2">
-        <v>0.43725000000000003</v>
+        <v>0.69235000000000002</v>
       </c>
       <c r="H2">
-        <v>0.6704</v>
+        <v>0.44259999999999999</v>
       </c>
       <c r="I2">
-        <v>0.68515000000000004</v>
+        <v>0.92735000000000001</v>
       </c>
       <c r="J2">
-        <v>0.67549999999999999</v>
+        <v>0.68959999999999999</v>
       </c>
       <c r="K2">
-        <v>0.43619999999999998</v>
+        <v>0.44030000000000002</v>
       </c>
       <c r="L2">
-        <v>0.69569999999999999</v>
+        <v>0.69784999999999997</v>
       </c>
       <c r="M2">
-        <v>0.69920000000000004</v>
+        <v>0.69904999999999995</v>
       </c>
       <c r="N2">
-        <v>0.44145000000000001</v>
+        <v>0.69330000000000003</v>
       </c>
       <c r="O2">
+        <v>0.69650000000000001</v>
+      </c>
+      <c r="P2">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="Q2">
+        <v>0.68874999999999997</v>
+      </c>
+      <c r="R2">
+        <v>0.68325000000000002</v>
+      </c>
+      <c r="S2">
+        <v>0.69725000000000004</v>
+      </c>
+      <c r="T2">
+        <v>0.69574999999999998</v>
+      </c>
+      <c r="U2">
+        <v>0.66115000000000002</v>
+      </c>
+      <c r="V2">
+        <v>0.65810000000000002</v>
+      </c>
+      <c r="W2">
+        <v>0.6734</v>
+      </c>
+      <c r="X2">
+        <v>0.65844999999999998</v>
+      </c>
+      <c r="Y2">
+        <v>0.44330000000000003</v>
+      </c>
+      <c r="Z2">
+        <v>0.66835</v>
+      </c>
+      <c r="AA2">
+        <v>0.65564999999999996</v>
+      </c>
+      <c r="AB2">
+        <v>0.67584999999999995</v>
+      </c>
+      <c r="AC2">
+        <v>0.92789999999999995</v>
+      </c>
+      <c r="AD2">
+        <v>0.67759999999999998</v>
+      </c>
+      <c r="AE2">
+        <v>0.67320000000000002</v>
+      </c>
+      <c r="AF2">
+        <v>0.43909999999999999</v>
+      </c>
+      <c r="AG2">
+        <v>0.65159999999999996</v>
+      </c>
+      <c r="AH2">
+        <v>0.6633</v>
+      </c>
+      <c r="AI2">
+        <v>0.43595</v>
+      </c>
+      <c r="AJ2">
+        <v>0.68354999999999999</v>
+      </c>
+      <c r="AK2">
+        <v>0.66954999999999998</v>
+      </c>
+      <c r="AL2">
+        <v>0.6996</v>
+      </c>
+      <c r="AM2">
+        <v>0.67649999999999999</v>
+      </c>
+      <c r="AN2">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="AO2">
+        <v>0.44629999999999997</v>
+      </c>
+      <c r="AP2">
         <v>0.66054999999999997</v>
       </c>
-      <c r="P2">
-        <v>0.66249999999999998</v>
-      </c>
-      <c r="Q2">
-        <v>0.65369999999999995</v>
-      </c>
-      <c r="R2">
-        <v>0.90990000000000004</v>
-      </c>
-      <c r="S2">
-        <v>0.43754999999999999</v>
-      </c>
-      <c r="T2">
-        <v>0.69350000000000001</v>
-      </c>
-      <c r="U2">
-        <v>0.66325000000000001</v>
-      </c>
-      <c r="V2">
-        <v>0.67774999999999996</v>
-      </c>
-      <c r="W2">
-        <v>0.67420000000000002</v>
-      </c>
-      <c r="X2">
-        <v>0.68584999999999996</v>
-      </c>
-      <c r="Y2">
-        <v>0.67984999999999995</v>
-      </c>
-      <c r="Z2">
-        <v>0.66354999999999997</v>
-      </c>
-      <c r="AA2">
-        <v>0.67210000000000003</v>
-      </c>
-      <c r="AB2">
-        <v>0.67569999999999997</v>
-      </c>
-      <c r="AC2">
-        <v>0.69355</v>
-      </c>
-      <c r="AD2">
-        <v>0.66825000000000001</v>
-      </c>
-      <c r="AE2">
-        <v>0.70165</v>
-      </c>
-      <c r="AF2">
-        <v>0.66810000000000003</v>
-      </c>
-      <c r="AG2">
-        <v>0.69955000000000001</v>
-      </c>
-      <c r="AH2">
-        <v>0.69715000000000005</v>
-      </c>
-      <c r="AI2">
-        <v>0.68964999999999999</v>
-      </c>
-      <c r="AJ2">
-        <v>0.66874999999999996</v>
-      </c>
-      <c r="AK2">
-        <v>0.69545000000000001</v>
-      </c>
-      <c r="AL2">
-        <v>0.68169999999999997</v>
-      </c>
-      <c r="AM2">
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="AN2">
-        <v>0.66959999999999997</v>
-      </c>
-      <c r="AO2">
-        <v>0.67435</v>
-      </c>
-      <c r="AP2">
-        <v>0.67915000000000003</v>
-      </c>
       <c r="AQ2">
-        <v>0.68664999999999998</v>
+        <v>0.67144999999999999</v>
       </c>
       <c r="AR2">
-        <v>0.68969999999999998</v>
+        <v>0.69915000000000005</v>
       </c>
       <c r="AS2">
-        <v>0.66805000000000003</v>
+        <v>0.64939999999999998</v>
       </c>
       <c r="AT2">
-        <v>0.69510000000000005</v>
+        <v>0.94294999999999995</v>
       </c>
       <c r="AU2">
-        <v>0.66820000000000002</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="AV2">
-        <v>0.43440000000000001</v>
+        <v>0.67810000000000004</v>
       </c>
       <c r="AW2">
-        <v>0.72045000000000003</v>
+        <v>0.45255000000000001</v>
       </c>
       <c r="AX2">
-        <v>0.6724</v>
+        <v>0.67330000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.65505000000000002</v>
+        <v>0.62444999999999995</v>
       </c>
       <c r="B3">
-        <v>0.87875000000000003</v>
+        <v>0.40970000000000001</v>
       </c>
       <c r="C3">
-        <v>0.41899999999999998</v>
+        <v>0.62780000000000002</v>
       </c>
       <c r="D3">
-        <v>0.96525000000000005</v>
+        <v>0.60270000000000001</v>
       </c>
       <c r="E3">
-        <v>0.87644999999999995</v>
+        <v>0.64180000000000004</v>
       </c>
       <c r="F3">
-        <v>0.89649999999999996</v>
+        <v>0.67544999999999999</v>
       </c>
       <c r="G3">
-        <v>0.4052</v>
+        <v>0.66285000000000005</v>
       </c>
       <c r="H3">
-        <v>0.63154999999999994</v>
+        <v>0.40760000000000002</v>
       </c>
       <c r="I3">
-        <v>0.94299999999999995</v>
+        <v>0.90395000000000003</v>
       </c>
       <c r="J3">
-        <v>0.64</v>
+        <v>0.6431</v>
       </c>
       <c r="K3">
-        <v>0.60760000000000003</v>
+        <v>0.63429999999999997</v>
       </c>
       <c r="L3">
-        <v>0.64200000000000002</v>
+        <v>0.65569999999999995</v>
       </c>
       <c r="M3">
-        <v>0.66285000000000005</v>
+        <v>0.71179999999999999</v>
       </c>
       <c r="N3">
-        <v>0.41799999999999998</v>
+        <v>0.90315000000000001</v>
       </c>
       <c r="O3">
-        <v>0.62109999999999999</v>
+        <v>0.61944999999999995</v>
       </c>
       <c r="P3">
+        <v>0.61550000000000005</v>
+      </c>
+      <c r="Q3">
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="R3">
+        <v>0.86645000000000005</v>
+      </c>
+      <c r="S3">
+        <v>0.62265000000000004</v>
+      </c>
+      <c r="T3">
+        <v>0.68320000000000003</v>
+      </c>
+      <c r="U3">
+        <v>0.59219999999999995</v>
+      </c>
+      <c r="V3">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="W3">
+        <v>0.62414999999999998</v>
+      </c>
+      <c r="X3">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="Y3">
+        <v>0.67279999999999995</v>
+      </c>
+      <c r="Z3">
+        <v>0.83284999999999998</v>
+      </c>
+      <c r="AA3">
+        <v>0.60075000000000001</v>
+      </c>
+      <c r="AB3">
+        <v>0.62239999999999995</v>
+      </c>
+      <c r="AC3">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="AD3">
+        <v>0.63805000000000001</v>
+      </c>
+      <c r="AE3">
+        <v>0.60465000000000002</v>
+      </c>
+      <c r="AF3">
+        <v>0.39995000000000003</v>
+      </c>
+      <c r="AG3">
         <v>0.64049999999999996</v>
       </c>
-      <c r="Q3">
-        <v>0.66310000000000002</v>
-      </c>
-      <c r="R3">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="S3">
-        <v>0.41889999999999999</v>
-      </c>
-      <c r="T3">
-        <v>0.66305000000000003</v>
-      </c>
-      <c r="U3">
-        <v>0.62975000000000003</v>
-      </c>
-      <c r="V3">
-        <v>0.63424999999999998</v>
-      </c>
-      <c r="W3">
-        <v>0.65390000000000004</v>
-      </c>
-      <c r="X3">
-        <v>0.68330000000000002</v>
-      </c>
-      <c r="Y3">
-        <v>0.63419999999999999</v>
-      </c>
-      <c r="Z3">
-        <v>0.622</v>
-      </c>
-      <c r="AA3">
-        <v>0.87675000000000003</v>
-      </c>
-      <c r="AB3">
-        <v>0.65139999999999998</v>
-      </c>
-      <c r="AC3">
-        <v>0.89495000000000002</v>
-      </c>
-      <c r="AD3">
-        <v>0.89544999999999997</v>
-      </c>
-      <c r="AE3">
-        <v>0.66839999999999999</v>
-      </c>
-      <c r="AF3">
-        <v>0.84840000000000004</v>
-      </c>
-      <c r="AG3">
-        <v>0.89090000000000003</v>
-      </c>
       <c r="AH3">
-        <v>0.68264999999999998</v>
+        <v>0.63434999999999997</v>
       </c>
       <c r="AI3">
-        <v>0.65175000000000005</v>
+        <v>0.39655000000000001</v>
       </c>
       <c r="AJ3">
-        <v>0.61995</v>
+        <v>0.70204999999999995</v>
       </c>
       <c r="AK3">
-        <v>0.68074999999999997</v>
+        <v>0.60314999999999996</v>
       </c>
       <c r="AL3">
-        <v>0.64549999999999996</v>
+        <v>0.63885000000000003</v>
       </c>
       <c r="AM3">
-        <v>0.64490000000000003</v>
+        <v>0.86955000000000005</v>
       </c>
       <c r="AN3">
-        <v>0.63680000000000003</v>
+        <v>0.62970000000000004</v>
       </c>
       <c r="AO3">
-        <v>0.59860000000000002</v>
+        <v>0.4259</v>
       </c>
       <c r="AP3">
-        <v>0.65095000000000003</v>
+        <v>0.59094999999999998</v>
       </c>
       <c r="AQ3">
-        <v>0.63859999999999995</v>
+        <v>0.65254999999999996</v>
       </c>
       <c r="AR3">
-        <v>0.68920000000000003</v>
+        <v>0.6744</v>
       </c>
       <c r="AS3">
-        <v>0.67800000000000005</v>
+        <v>0.68735000000000002</v>
       </c>
       <c r="AT3">
-        <v>0.61934999999999996</v>
+        <v>0.87334999999999996</v>
       </c>
       <c r="AU3">
-        <v>0.64024999999999999</v>
+        <v>0.41549999999999998</v>
       </c>
       <c r="AV3">
-        <v>0.38255</v>
+        <v>0.62309999999999999</v>
       </c>
       <c r="AW3">
-        <v>0.67349999999999999</v>
+        <v>0.42804999999999999</v>
       </c>
       <c r="AX3">
-        <v>0.59055000000000002</v>
+        <v>0.61880000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.83165</v>
+        <v>0.57820000000000005</v>
       </c>
       <c r="B4">
-        <v>0.85055000000000003</v>
+        <v>0.37924999999999998</v>
       </c>
       <c r="C4">
-        <v>0.3296</v>
+        <v>0.57435000000000003</v>
       </c>
       <c r="D4">
-        <v>0.89395000000000002</v>
+        <v>0.6351</v>
       </c>
       <c r="E4">
-        <v>0.80954999999999999</v>
+        <v>0.57674999999999998</v>
       </c>
       <c r="F4">
-        <v>0.82904999999999995</v>
+        <v>0.88534999999999997</v>
       </c>
       <c r="G4">
-        <v>0.37695000000000001</v>
+        <v>0.62660000000000005</v>
       </c>
       <c r="H4">
-        <v>0.54944999999999999</v>
+        <v>0.38185000000000002</v>
       </c>
       <c r="I4">
-        <v>0.92579999999999996</v>
+        <v>0.86775000000000002</v>
       </c>
       <c r="J4">
-        <v>0.57010000000000005</v>
+        <v>0.6119</v>
       </c>
       <c r="K4">
-        <v>0.61970000000000003</v>
+        <v>0.57565</v>
       </c>
       <c r="L4">
-        <v>0.61860000000000004</v>
+        <v>0.60014999999999996</v>
       </c>
       <c r="M4">
-        <v>0.91200000000000003</v>
+        <v>0.66554999999999997</v>
       </c>
       <c r="N4">
-        <v>0.3664</v>
+        <v>0.88354999999999995</v>
       </c>
       <c r="O4">
-        <v>0.91100000000000003</v>
+        <v>0.51675000000000004</v>
       </c>
       <c r="P4">
-        <v>0.58394999999999997</v>
+        <v>0.59204999999999997</v>
       </c>
       <c r="Q4">
-        <v>0.61655000000000004</v>
+        <v>0.86424999999999996</v>
       </c>
       <c r="R4">
-        <v>0.94035000000000002</v>
+        <v>0.79479999999999995</v>
       </c>
       <c r="S4">
-        <v>0.77185000000000004</v>
+        <v>0.57125000000000004</v>
       </c>
       <c r="T4">
-        <v>0.63290000000000002</v>
+        <v>0.66544999999999999</v>
       </c>
       <c r="U4">
-        <v>0.80320000000000003</v>
+        <v>0.52154999999999996</v>
       </c>
       <c r="V4">
-        <v>0.63944999999999996</v>
+        <v>0.57089999999999996</v>
       </c>
       <c r="W4">
-        <v>0.63149999999999995</v>
+        <v>0.58535000000000004</v>
       </c>
       <c r="X4">
-        <v>0.60065000000000002</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="Y4">
-        <v>0.56810000000000005</v>
+        <v>0.61595</v>
       </c>
       <c r="Z4">
-        <v>0.56484999999999996</v>
+        <v>0.76090000000000002</v>
       </c>
       <c r="AA4">
-        <v>0.78785000000000005</v>
+        <v>0.52070000000000005</v>
       </c>
       <c r="AB4">
-        <v>0.61655000000000004</v>
+        <v>0.58504999999999996</v>
       </c>
       <c r="AC4">
-        <v>0.87319999999999998</v>
+        <v>0.87580000000000002</v>
       </c>
       <c r="AD4">
-        <v>0.82364999999999999</v>
+        <v>0.82950000000000002</v>
       </c>
       <c r="AE4">
-        <v>0.89315</v>
+        <v>0.55054999999999998</v>
       </c>
       <c r="AF4">
-        <v>0.78269999999999995</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="AG4">
-        <v>0.87890000000000001</v>
+        <v>0.59804999999999997</v>
       </c>
       <c r="AH4">
-        <v>0.65180000000000005</v>
+        <v>0.55564999999999998</v>
       </c>
       <c r="AI4">
-        <v>0.57665</v>
+        <v>0.53905000000000003</v>
       </c>
       <c r="AJ4">
-        <v>0.52315</v>
+        <v>0.82255</v>
       </c>
       <c r="AK4">
-        <v>0.64454999999999996</v>
+        <v>0.57850000000000001</v>
       </c>
       <c r="AL4">
-        <v>0.57235000000000003</v>
+        <v>0.56084999999999996</v>
       </c>
       <c r="AM4">
-        <v>0.59489999999999998</v>
+        <v>0.82194999999999996</v>
       </c>
       <c r="AN4">
-        <v>0.52275000000000005</v>
+        <v>0.56945000000000001</v>
       </c>
       <c r="AO4">
-        <v>0.53380000000000005</v>
+        <v>0.38469999999999999</v>
       </c>
       <c r="AP4">
-        <v>0.58045000000000002</v>
+        <v>0.53444999999999998</v>
       </c>
       <c r="AQ4">
-        <v>0.60414999999999996</v>
+        <v>0.87565000000000004</v>
       </c>
       <c r="AR4">
-        <v>0.81950000000000001</v>
+        <v>0.64795000000000003</v>
       </c>
       <c r="AS4">
-        <v>0.64629999999999999</v>
+        <v>0.66905000000000003</v>
       </c>
       <c r="AT4">
-        <v>0.58155000000000001</v>
+        <v>0.84075</v>
       </c>
       <c r="AU4">
-        <v>0.5625</v>
+        <v>0.62575000000000003</v>
       </c>
       <c r="AV4">
-        <v>0.5706</v>
+        <v>0.60985</v>
       </c>
       <c r="AW4">
-        <v>0.66905000000000003</v>
+        <v>0.37805</v>
       </c>
       <c r="AX4">
-        <v>0.56555</v>
+        <v>0.57050000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.84350000000000003</v>
+        <v>0.52334999999999998</v>
       </c>
       <c r="B5">
-        <v>0.80930000000000002</v>
+        <v>0.30044999999999999</v>
       </c>
       <c r="C5">
-        <v>0.4803</v>
+        <v>0.50405</v>
       </c>
       <c r="D5">
-        <v>0.86214999999999997</v>
+        <v>0.59804999999999997</v>
       </c>
       <c r="E5">
-        <v>0.70720000000000005</v>
+        <v>0.81674999999999998</v>
       </c>
       <c r="F5">
-        <v>0.75319999999999998</v>
+        <v>0.89039999999999997</v>
       </c>
       <c r="G5">
-        <v>0.32124999999999998</v>
+        <v>0.63019999999999998</v>
       </c>
       <c r="H5">
-        <v>0.41785</v>
+        <v>0.31209999999999999</v>
       </c>
       <c r="I5">
-        <v>0.84799999999999998</v>
+        <v>0.82965</v>
       </c>
       <c r="J5">
-        <v>0.49954999999999999</v>
+        <v>0.56030000000000002</v>
       </c>
       <c r="K5">
-        <v>0.75805</v>
+        <v>0.45865</v>
       </c>
       <c r="L5">
-        <v>0.50224999999999997</v>
+        <v>0.79515000000000002</v>
       </c>
       <c r="M5">
-        <v>0.94574999999999998</v>
+        <v>0.62455000000000005</v>
       </c>
       <c r="N5">
-        <v>0.52580000000000005</v>
+        <v>0.83819999999999995</v>
       </c>
       <c r="O5">
-        <v>0.85424999999999995</v>
+        <v>0.49159999999999998</v>
       </c>
       <c r="P5">
-        <v>0.9002</v>
+        <v>0.50139999999999996</v>
       </c>
       <c r="Q5">
-        <v>0.86134999999999995</v>
+        <v>0.89810000000000001</v>
       </c>
       <c r="R5">
-        <v>0.92420000000000002</v>
+        <v>0.80089999999999995</v>
       </c>
       <c r="S5">
-        <v>0.61055000000000004</v>
+        <v>0.47770000000000001</v>
       </c>
       <c r="T5">
-        <v>0.60004999999999997</v>
+        <v>0.61014999999999997</v>
       </c>
       <c r="U5">
-        <v>0.64410000000000001</v>
+        <v>0.61819999999999997</v>
       </c>
       <c r="V5">
-        <v>0.56510000000000005</v>
+        <v>0.51719999999999999</v>
       </c>
       <c r="W5">
-        <v>0.54335</v>
+        <v>0.50075000000000003</v>
       </c>
       <c r="X5">
-        <v>0.93664999999999998</v>
+        <v>0.47889999999999999</v>
       </c>
       <c r="Y5">
-        <v>0.47</v>
+        <v>0.53095000000000003</v>
       </c>
       <c r="Z5">
-        <v>0.56830000000000003</v>
+        <v>0.79444999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.64515</v>
+        <v>0.4451</v>
       </c>
       <c r="AB5">
-        <v>0.50209999999999999</v>
+        <v>0.64724999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.71174999999999999</v>
+        <v>0.95065</v>
       </c>
       <c r="AD5">
-        <v>0.74350000000000005</v>
+        <v>0.85685</v>
       </c>
       <c r="AE5">
-        <v>0.79920000000000002</v>
+        <v>0.49145</v>
       </c>
       <c r="AF5">
-        <v>0.67395000000000005</v>
+        <v>0.32195000000000001</v>
       </c>
       <c r="AG5">
-        <v>0.88580000000000003</v>
+        <v>0.56005000000000005</v>
       </c>
       <c r="AH5">
-        <v>0.63844999999999996</v>
+        <v>0.42585000000000001</v>
       </c>
       <c r="AI5">
-        <v>0.44345000000000001</v>
+        <v>0.45315</v>
       </c>
       <c r="AJ5">
-        <v>0.45684999999999998</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="AK5">
-        <v>0.58155000000000001</v>
+        <v>0.61024999999999996</v>
       </c>
       <c r="AL5">
-        <v>0.61560000000000004</v>
+        <v>0.74585000000000001</v>
       </c>
       <c r="AM5">
-        <v>0.57674999999999998</v>
+        <v>0.69579999999999997</v>
       </c>
       <c r="AN5">
-        <v>0.60245000000000004</v>
+        <v>0.50519999999999998</v>
       </c>
       <c r="AO5">
-        <v>0.55549999999999999</v>
+        <v>0.29615000000000002</v>
       </c>
       <c r="AP5">
-        <v>0.54690000000000005</v>
+        <v>0.47704999999999997</v>
       </c>
       <c r="AQ5">
-        <v>0.51554999999999995</v>
+        <v>0.88765000000000005</v>
       </c>
       <c r="AR5">
-        <v>0.71365000000000001</v>
+        <v>0.6381</v>
       </c>
       <c r="AS5">
-        <v>0.62229999999999996</v>
+        <v>0.63349999999999995</v>
       </c>
       <c r="AT5">
-        <v>0.86824999999999997</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="AU5">
-        <v>0.61129999999999995</v>
+        <v>0.52725</v>
       </c>
       <c r="AV5">
-        <v>0.64444999999999997</v>
+        <v>0.50329999999999997</v>
       </c>
       <c r="AW5">
-        <v>0.6431</v>
+        <v>0.33374999999999999</v>
       </c>
       <c r="AX5">
-        <v>0.49559999999999998</v>
+        <v>0.41084999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.81240000000000001</v>
+        <v>0.45429999999999998</v>
       </c>
       <c r="B6">
-        <v>0.77224999999999999</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="C6">
-        <v>0.79064999999999996</v>
+        <v>0.73324999999999996</v>
       </c>
       <c r="D6">
-        <v>0.81059999999999999</v>
+        <v>0.83265</v>
       </c>
       <c r="E6">
-        <v>0.77905000000000002</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="F6">
-        <v>0.81699999999999995</v>
+        <v>0.81620000000000004</v>
       </c>
       <c r="G6">
-        <v>0.23130000000000001</v>
+        <v>0.74750000000000005</v>
       </c>
       <c r="H6">
-        <v>0.31495000000000001</v>
+        <v>0.35930000000000001</v>
       </c>
       <c r="I6">
-        <v>0.88624999999999998</v>
+        <v>0.85294999999999999</v>
       </c>
       <c r="J6">
-        <v>0.53600000000000003</v>
+        <v>0.42670000000000002</v>
       </c>
       <c r="K6">
-        <v>0.7147</v>
+        <v>0.54139999999999999</v>
       </c>
       <c r="L6">
-        <v>0.61250000000000004</v>
+        <v>0.68559999999999999</v>
       </c>
       <c r="M6">
-        <v>0.92510000000000003</v>
+        <v>0.69889999999999997</v>
       </c>
       <c r="N6">
-        <v>0.54795000000000005</v>
+        <v>0.74844999999999995</v>
       </c>
       <c r="O6">
-        <v>0.80289999999999995</v>
+        <v>0.36659999999999998</v>
       </c>
       <c r="P6">
-        <v>0.71755000000000002</v>
+        <v>0.65639999999999998</v>
       </c>
       <c r="Q6">
-        <v>0.60655000000000003</v>
+        <v>0.89564999999999995</v>
       </c>
       <c r="R6">
-        <v>0.79405000000000003</v>
+        <v>0.71984999999999999</v>
       </c>
       <c r="S6">
-        <v>0.62370000000000003</v>
+        <v>0.41475000000000001</v>
       </c>
       <c r="T6">
-        <v>0.53569999999999995</v>
+        <v>0.46639999999999998</v>
       </c>
       <c r="U6">
-        <v>0.72570000000000001</v>
+        <v>0.68979999999999997</v>
       </c>
       <c r="V6">
-        <v>0.40844999999999998</v>
+        <v>0.49285000000000001</v>
       </c>
       <c r="W6">
-        <v>0.42430000000000001</v>
+        <v>0.60885</v>
       </c>
       <c r="X6">
-        <v>0.98519999999999996</v>
+        <v>0.37345</v>
       </c>
       <c r="Y6">
-        <v>0.55945</v>
+        <v>0.44545000000000001</v>
       </c>
       <c r="Z6">
-        <v>0.42599999999999999</v>
+        <v>0.70330000000000004</v>
       </c>
       <c r="AA6">
-        <v>0.60435000000000005</v>
+        <v>0.51424999999999998</v>
       </c>
       <c r="AB6">
-        <v>0.33800000000000002</v>
+        <v>0.61919999999999997</v>
       </c>
       <c r="AC6">
-        <v>0.82735000000000003</v>
+        <v>0.8085</v>
       </c>
       <c r="AD6">
-        <v>0.53325</v>
+        <v>0.78120000000000001</v>
       </c>
       <c r="AE6">
-        <v>0.69074999999999998</v>
+        <v>0.36635000000000001</v>
       </c>
       <c r="AF6">
-        <v>0.82030000000000003</v>
+        <v>0.57284999999999997</v>
       </c>
       <c r="AG6">
-        <v>0.86085</v>
+        <v>0.49525000000000002</v>
       </c>
       <c r="AH6">
-        <v>0.54500000000000004</v>
+        <v>0.31424999999999997</v>
       </c>
       <c r="AI6">
-        <v>0.50829999999999997</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="AJ6">
-        <v>0.40539999999999998</v>
+        <v>0.94564999999999999</v>
       </c>
       <c r="AK6">
-        <v>0.70940000000000003</v>
+        <v>0.74414999999999998</v>
       </c>
       <c r="AL6">
-        <v>0.57640000000000002</v>
+        <v>0.7228</v>
       </c>
       <c r="AM6">
-        <v>0.50675000000000003</v>
+        <v>0.53669999999999995</v>
       </c>
       <c r="AN6">
-        <v>0.56384999999999996</v>
+        <v>0.46315000000000001</v>
       </c>
       <c r="AO6">
-        <v>0.64700000000000002</v>
+        <v>0.21345</v>
       </c>
       <c r="AP6">
-        <v>0.42275000000000001</v>
+        <v>0.35535</v>
       </c>
       <c r="AQ6">
-        <v>0.38024999999999998</v>
+        <v>0.85009999999999997</v>
       </c>
       <c r="AR6">
-        <v>0.63380000000000003</v>
+        <v>0.81345000000000001</v>
       </c>
       <c r="AS6">
-        <v>0.59504999999999997</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AT6">
-        <v>0.83130000000000004</v>
+        <v>0.85035000000000005</v>
       </c>
       <c r="AU6">
-        <v>0.73385</v>
+        <v>0.67349999999999999</v>
       </c>
       <c r="AV6">
-        <v>0.62319999999999998</v>
+        <v>0.48764999999999997</v>
       </c>
       <c r="AW6">
-        <v>0.628</v>
+        <v>0.36075000000000002</v>
       </c>
       <c r="AX6">
-        <v>0.81635000000000002</v>
+        <v>0.55349999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.77400000000000002</v>
+        <v>0.50549999999999995</v>
       </c>
       <c r="B7">
-        <v>0.60929999999999995</v>
+        <v>0.44285000000000002</v>
       </c>
       <c r="C7">
-        <v>0.83514999999999995</v>
+        <v>0.67354999999999998</v>
       </c>
       <c r="D7">
-        <v>0.85424999999999995</v>
+        <v>0.7631</v>
       </c>
       <c r="E7">
-        <v>0.74719999999999998</v>
+        <v>0.63534999999999997</v>
       </c>
       <c r="F7">
-        <v>0.6552</v>
+        <v>0.75490000000000002</v>
       </c>
       <c r="G7">
-        <v>0.14155000000000001</v>
+        <v>0.71775</v>
       </c>
       <c r="H7">
-        <v>0.51385000000000003</v>
+        <v>0.68110000000000004</v>
       </c>
       <c r="I7">
-        <v>0.80259999999999998</v>
+        <v>0.76905000000000001</v>
       </c>
       <c r="J7">
-        <v>0.56369999999999998</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="K7">
-        <v>0.84419999999999995</v>
+        <v>0.44935000000000003</v>
       </c>
       <c r="L7">
-        <v>0.49385000000000001</v>
+        <v>0.47975000000000001</v>
       </c>
       <c r="M7">
-        <v>0.85845000000000005</v>
+        <v>0.49719999999999998</v>
       </c>
       <c r="N7">
-        <v>0.56730000000000003</v>
+        <v>0.70440000000000003</v>
       </c>
       <c r="O7">
-        <v>0.67795000000000005</v>
+        <v>0.1731</v>
       </c>
       <c r="P7">
-        <v>0.70535000000000003</v>
+        <v>0.38164999999999999</v>
       </c>
       <c r="Q7">
-        <v>0.54090000000000005</v>
+        <v>0.92974999999999997</v>
       </c>
       <c r="R7">
-        <v>0.89315</v>
+        <v>0.6583</v>
       </c>
       <c r="S7">
-        <v>0.40260000000000001</v>
+        <v>0.33624999999999999</v>
       </c>
       <c r="T7">
-        <v>0.70584999999999998</v>
+        <v>0.45390000000000003</v>
       </c>
       <c r="U7">
-        <v>0.62614999999999998</v>
+        <v>0.91579999999999995</v>
       </c>
       <c r="V7">
-        <v>0.42315000000000003</v>
+        <v>0.48175000000000001</v>
       </c>
       <c r="W7">
-        <v>0.59235000000000004</v>
+        <v>0.44240000000000002</v>
       </c>
       <c r="X7">
-        <v>0.94840000000000002</v>
+        <v>0.47089999999999999</v>
       </c>
       <c r="Y7">
-        <v>0.71935000000000004</v>
+        <v>0.42</v>
       </c>
       <c r="Z7">
-        <v>0.33724999999999999</v>
+        <v>0.59670000000000001</v>
       </c>
       <c r="AA7">
-        <v>0.47384999999999999</v>
+        <v>0.71284999999999998</v>
       </c>
       <c r="AB7">
-        <v>0.35165000000000002</v>
+        <v>0.74780000000000002</v>
       </c>
       <c r="AC7">
-        <v>0.77954999999999997</v>
+        <v>0.62624999999999997</v>
       </c>
       <c r="AD7">
-        <v>0.56584999999999996</v>
+        <v>0.9173</v>
       </c>
       <c r="AE7">
-        <v>0.64134999999999998</v>
+        <v>0.53910000000000002</v>
       </c>
       <c r="AF7">
-        <v>0.81205000000000005</v>
+        <v>0.55095000000000005</v>
       </c>
       <c r="AG7">
-        <v>0.75860000000000005</v>
+        <v>0.35175000000000001</v>
       </c>
       <c r="AH7">
-        <v>0.52554999999999996</v>
+        <v>0.1986</v>
       </c>
       <c r="AI7">
-        <v>0.48699999999999999</v>
+        <v>0.31979999999999997</v>
       </c>
       <c r="AJ7">
-        <v>0.35075000000000001</v>
+        <v>0.8165</v>
       </c>
       <c r="AK7">
-        <v>0.48275000000000001</v>
+        <v>0.55474999999999997</v>
       </c>
       <c r="AL7">
-        <v>0.4945</v>
+        <v>0.62509999999999999</v>
       </c>
       <c r="AM7">
-        <v>0.34870000000000001</v>
+        <v>0.58825000000000005</v>
       </c>
       <c r="AN7">
-        <v>0.54315000000000002</v>
+        <v>0.4279</v>
       </c>
       <c r="AO7">
-        <v>0.58389999999999997</v>
+        <v>0.25969999999999999</v>
       </c>
       <c r="AP7">
-        <v>0.42525000000000002</v>
+        <v>0.20815</v>
       </c>
       <c r="AQ7">
-        <v>0.30259999999999998</v>
+        <v>0.77844999999999998</v>
       </c>
       <c r="AR7">
-        <v>0.76815</v>
+        <v>0.79120000000000001</v>
       </c>
       <c r="AS7">
-        <v>0.68464999999999998</v>
+        <v>0.50660000000000005</v>
       </c>
       <c r="AT7">
-        <v>0.57774999999999999</v>
+        <v>0.67115000000000002</v>
       </c>
       <c r="AU7">
-        <v>0.51754999999999995</v>
+        <v>0.48335</v>
       </c>
       <c r="AV7">
-        <v>0.62380000000000002</v>
+        <v>0.49709999999999999</v>
       </c>
       <c r="AW7">
-        <v>0.8407</v>
+        <v>0.25985000000000003</v>
       </c>
       <c r="AX7">
-        <v>0.75695000000000001</v>
+        <v>0.69310000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.69135000000000002</v>
+        <v>0.49335000000000001</v>
       </c>
       <c r="B8">
-        <v>0.50290000000000001</v>
+        <v>0.63324999999999998</v>
       </c>
       <c r="C8">
-        <v>0.66110000000000002</v>
+        <v>0.59660000000000002</v>
       </c>
       <c r="D8">
-        <v>0.67095000000000005</v>
+        <v>0.92959999999999998</v>
       </c>
       <c r="E8">
-        <v>0.58050000000000002</v>
+        <v>0.58274999999999999</v>
       </c>
       <c r="F8">
-        <v>0.80915000000000004</v>
+        <v>0.78310000000000002</v>
       </c>
       <c r="G8">
-        <v>4.0050000000000002E-2</v>
+        <v>0.78539999999999999</v>
       </c>
       <c r="H8">
-        <v>0.66910000000000003</v>
+        <v>0.59814999999999996</v>
       </c>
       <c r="I8">
-        <v>0.53315000000000001</v>
+        <v>0.68140000000000001</v>
       </c>
       <c r="J8">
-        <v>0.53210000000000002</v>
+        <v>0.24579999999999999</v>
       </c>
       <c r="K8">
-        <v>0.72175</v>
+        <v>0.33334999999999998</v>
       </c>
       <c r="L8">
-        <v>0.22070000000000001</v>
+        <v>0.60885</v>
       </c>
       <c r="M8">
-        <v>0.89234999999999998</v>
+        <v>0.76154999999999995</v>
       </c>
       <c r="N8">
-        <v>0.53425</v>
+        <v>0.56759999999999999</v>
       </c>
       <c r="O8">
-        <v>0.91579999999999995</v>
+        <v>9.7250000000000003E-2</v>
       </c>
       <c r="P8">
-        <v>0.54310000000000003</v>
+        <v>0.41160000000000002</v>
       </c>
       <c r="Q8">
-        <v>0.40405000000000002</v>
+        <v>0.9637</v>
       </c>
       <c r="R8">
-        <v>0.84355000000000002</v>
+        <v>0.58660000000000001</v>
       </c>
       <c r="S8">
-        <v>0.26679999999999998</v>
+        <v>0.52110000000000001</v>
       </c>
       <c r="T8">
-        <v>0.74990000000000001</v>
+        <v>0.50565000000000004</v>
       </c>
       <c r="U8">
-        <v>0.8246</v>
+        <v>0.92789999999999995</v>
       </c>
       <c r="V8">
-        <v>0.47099999999999997</v>
+        <v>0.53734999999999999</v>
       </c>
       <c r="W8">
-        <v>0.44950000000000001</v>
+        <v>0.43154999999999999</v>
       </c>
       <c r="X8">
-        <v>0.86629999999999996</v>
+        <v>0.42604999999999998</v>
       </c>
       <c r="Y8">
-        <v>0.80610000000000004</v>
+        <v>0.33579999999999999</v>
       </c>
       <c r="Z8">
-        <v>0.55359999999999998</v>
+        <v>0.56220000000000003</v>
       </c>
       <c r="AA8">
-        <v>0.4461</v>
+        <v>0.55669999999999997</v>
       </c>
       <c r="AB8">
-        <v>0.40910000000000002</v>
+        <v>0.7923</v>
       </c>
       <c r="AC8">
-        <v>0.96994999999999998</v>
+        <v>0.65185000000000004</v>
       </c>
       <c r="AD8">
-        <v>0.45960000000000001</v>
+        <v>0.70309999999999995</v>
       </c>
       <c r="AE8">
-        <v>0.74329999999999996</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="AF8">
-        <v>0.74209999999999998</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="AG8">
-        <v>0.83009999999999995</v>
+        <v>0.27925</v>
       </c>
       <c r="AH8">
-        <v>0.44614999999999999</v>
+        <v>0.15795000000000001</v>
       </c>
       <c r="AI8">
-        <v>0.35649999999999998</v>
+        <v>0.5484</v>
       </c>
       <c r="AJ8">
-        <v>0.40925</v>
+        <v>0.74390000000000001</v>
       </c>
       <c r="AK8">
-        <v>0.35165000000000002</v>
+        <v>0.46279999999999999</v>
       </c>
       <c r="AL8">
-        <v>0.48809999999999998</v>
+        <v>0.63324999999999998</v>
       </c>
       <c r="AM8">
-        <v>0.3342</v>
+        <v>0.40694999999999998</v>
       </c>
       <c r="AN8">
-        <v>0.51185000000000003</v>
+        <v>0.41294999999999998</v>
       </c>
       <c r="AO8">
-        <v>0.72099999999999997</v>
+        <v>0.45815</v>
       </c>
       <c r="AP8">
-        <v>0.4788</v>
+        <v>0.12105</v>
       </c>
       <c r="AQ8">
-        <v>0.38495000000000001</v>
+        <v>0.65725</v>
       </c>
       <c r="AR8">
-        <v>0.73965000000000003</v>
+        <v>0.70409999999999995</v>
       </c>
       <c r="AS8">
-        <v>0.80969999999999998</v>
+        <v>0.47939999999999999</v>
       </c>
       <c r="AT8">
-        <v>0.81855</v>
+        <v>0.86904999999999999</v>
       </c>
       <c r="AU8">
-        <v>0.50519999999999998</v>
+        <v>0.36849999999999999</v>
       </c>
       <c r="AV8">
-        <v>0.64759999999999995</v>
+        <v>0.42745</v>
       </c>
       <c r="AW8">
-        <v>0.72660000000000002</v>
+        <v>0.15304999999999999</v>
       </c>
       <c r="AX8">
-        <v>0.63514999999999999</v>
+        <v>0.47225</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.42249999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="B9">
-        <v>0.70840000000000003</v>
+        <v>0.3226</v>
       </c>
       <c r="C9">
-        <v>0.57125000000000004</v>
+        <v>0.58155000000000001</v>
       </c>
       <c r="D9">
-        <v>0.59635000000000005</v>
+        <v>0.89190000000000003</v>
       </c>
       <c r="E9">
-        <v>0.34584999999999999</v>
+        <v>0.65349999999999997</v>
       </c>
       <c r="F9">
-        <v>0.754</v>
+        <v>0.69284999999999997</v>
       </c>
       <c r="G9">
-        <v>6.4850000000000005E-2</v>
+        <v>0.60714999999999997</v>
       </c>
       <c r="H9">
-        <v>0.47134999999999999</v>
+        <v>0.53310000000000002</v>
       </c>
       <c r="I9">
-        <v>0.33665</v>
+        <v>0.44524999999999998</v>
       </c>
       <c r="J9">
-        <v>0.79110000000000003</v>
+        <v>0.3019</v>
       </c>
       <c r="K9">
-        <v>0.61624999999999996</v>
+        <v>0.36335000000000001</v>
       </c>
       <c r="L9">
-        <v>0.33805000000000002</v>
+        <v>0.53185000000000004</v>
       </c>
       <c r="M9">
-        <v>0.78569999999999995</v>
+        <v>0.81294999999999995</v>
       </c>
       <c r="N9">
-        <v>0.5806</v>
+        <v>0.44335000000000002</v>
       </c>
       <c r="O9">
-        <v>0.88434999999999997</v>
+        <v>0.11155</v>
       </c>
       <c r="P9">
-        <v>0.4491</v>
+        <v>0.27650000000000002</v>
       </c>
       <c r="Q9">
-        <v>0.46274999999999999</v>
+        <v>0.89924999999999999</v>
       </c>
       <c r="R9">
-        <v>0.79720000000000002</v>
+        <v>0.68240000000000001</v>
       </c>
       <c r="S9">
-        <v>0.23300000000000001</v>
+        <v>0.7208</v>
       </c>
       <c r="T9">
-        <v>0.83379999999999999</v>
+        <v>0.73145000000000004</v>
       </c>
       <c r="U9">
-        <v>0.84970000000000001</v>
+        <v>0.98694999999999999</v>
       </c>
       <c r="V9">
-        <v>0.57055</v>
+        <v>0.44345000000000001</v>
       </c>
       <c r="W9">
-        <v>0.38245000000000001</v>
+        <v>0.45550000000000002</v>
       </c>
       <c r="X9">
-        <v>0.70679999999999998</v>
+        <v>0.50260000000000005</v>
       </c>
       <c r="Y9">
-        <v>0.75555000000000005</v>
+        <v>0.45584999999999998</v>
       </c>
       <c r="Z9">
-        <v>0.49154999999999999</v>
+        <v>0.58425000000000005</v>
       </c>
       <c r="AA9">
-        <v>0.45765</v>
+        <v>0.63234999999999997</v>
       </c>
       <c r="AB9">
-        <v>0.23705000000000001</v>
+        <v>0.87975000000000003</v>
       </c>
       <c r="AC9">
-        <v>0.91144999999999998</v>
+        <v>0.80774999999999997</v>
       </c>
       <c r="AD9">
-        <v>0.54954999999999998</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="AE9">
-        <v>0.46650000000000003</v>
+        <v>0.39134999999999998</v>
       </c>
       <c r="AF9">
-        <v>0.64434999999999998</v>
+        <v>0.51485000000000003</v>
       </c>
       <c r="AG9">
-        <v>0.83460000000000001</v>
+        <v>0.30814999999999998</v>
       </c>
       <c r="AH9">
-        <v>0.25869999999999999</v>
+        <v>0.31490000000000001</v>
       </c>
       <c r="AI9">
-        <v>0.47255000000000003</v>
+        <v>0.49264999999999998</v>
       </c>
       <c r="AJ9">
-        <v>0.45395000000000002</v>
+        <v>0.60640000000000005</v>
       </c>
       <c r="AK9">
-        <v>0.71860000000000002</v>
+        <v>0.27150000000000002</v>
       </c>
       <c r="AL9">
-        <v>0.57274999999999998</v>
+        <v>0.47504999999999997</v>
       </c>
       <c r="AM9">
-        <v>0.54054999999999997</v>
+        <v>0.76234999999999997</v>
       </c>
       <c r="AN9">
-        <v>0.47499999999999998</v>
+        <v>0.54085000000000005</v>
       </c>
       <c r="AO9">
-        <v>0.64159999999999995</v>
+        <v>0.29880000000000001</v>
       </c>
       <c r="AP9">
-        <v>0.47720000000000001</v>
+        <v>0.30564999999999998</v>
       </c>
       <c r="AQ9">
-        <v>0.23175000000000001</v>
+        <v>0.35725000000000001</v>
       </c>
       <c r="AR9">
-        <v>0.67400000000000004</v>
+        <v>0.57345000000000002</v>
       </c>
       <c r="AS9">
-        <v>0.81159999999999999</v>
+        <v>0.74829999999999997</v>
       </c>
       <c r="AT9">
-        <v>0.83420000000000005</v>
+        <v>0.88370000000000004</v>
       </c>
       <c r="AU9">
-        <v>0.40760000000000002</v>
+        <v>0.19345000000000001</v>
       </c>
       <c r="AV9">
-        <v>0.83565</v>
+        <v>0.51529999999999998</v>
       </c>
       <c r="AW9">
-        <v>0.56320000000000003</v>
+        <v>0.27524999999999999</v>
       </c>
       <c r="AX9">
-        <v>0.72970000000000002</v>
+        <v>0.26765</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.44695000000000001</v>
+        <v>0.16350000000000001</v>
       </c>
       <c r="B10">
-        <v>0.58155000000000001</v>
+        <v>0.28110000000000002</v>
       </c>
       <c r="C10">
-        <v>0.51800000000000002</v>
+        <v>0.63424999999999998</v>
       </c>
       <c r="D10">
-        <v>0.74424999999999997</v>
+        <v>0.75919999999999999</v>
       </c>
       <c r="E10">
-        <v>0.3841</v>
+        <v>0.67710000000000004</v>
       </c>
       <c r="F10">
-        <v>0.95940000000000003</v>
+        <v>0.85794999999999999</v>
       </c>
       <c r="G10">
-        <v>3.2750000000000001E-2</v>
+        <v>0.55025000000000002</v>
       </c>
       <c r="H10">
-        <v>0.58825000000000005</v>
+        <v>0.36530000000000001</v>
       </c>
       <c r="I10">
-        <v>0.45455000000000001</v>
+        <v>0.43325000000000002</v>
       </c>
       <c r="J10">
-        <v>0.76244999999999996</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="K10">
-        <v>0.57650000000000001</v>
+        <v>0.28715000000000002</v>
       </c>
       <c r="L10">
-        <v>0.29465000000000002</v>
+        <v>0.74914999999999998</v>
       </c>
       <c r="M10">
-        <v>0.73180000000000001</v>
+        <v>0.76339999999999997</v>
       </c>
       <c r="N10">
-        <v>0.57599999999999996</v>
+        <v>0.42620000000000002</v>
       </c>
       <c r="O10">
-        <v>0.86434999999999995</v>
+        <v>0.30354999999999999</v>
       </c>
       <c r="P10">
-        <v>0.42285</v>
+        <v>0.1399</v>
       </c>
       <c r="Q10">
-        <v>0.43235000000000001</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="R10">
-        <v>0.62485000000000002</v>
+        <v>0.69750000000000001</v>
       </c>
       <c r="S10">
-        <v>0.27105000000000001</v>
+        <v>0.68525000000000003</v>
       </c>
       <c r="T10">
-        <v>0.7944</v>
+        <v>0.76959999999999995</v>
       </c>
       <c r="U10">
-        <v>0.77675000000000005</v>
+        <v>0.94794999999999996</v>
       </c>
       <c r="V10">
-        <v>0.79810000000000003</v>
+        <v>0.52185000000000004</v>
       </c>
       <c r="W10">
-        <v>0.4153</v>
+        <v>0.44550000000000001</v>
       </c>
       <c r="X10">
-        <v>0.88785000000000003</v>
+        <v>0.67230000000000001</v>
       </c>
       <c r="Y10">
-        <v>0.60809999999999997</v>
+        <v>0.30409999999999998</v>
       </c>
       <c r="Z10">
-        <v>0.54264999999999997</v>
+        <v>0.57850000000000001</v>
       </c>
       <c r="AA10">
-        <v>0.47055000000000002</v>
+        <v>0.41815000000000002</v>
       </c>
       <c r="AB10">
-        <v>0.2888</v>
+        <v>0.76049999999999995</v>
       </c>
       <c r="AC10">
-        <v>0.82499999999999996</v>
+        <v>0.69315000000000004</v>
       </c>
       <c r="AD10">
-        <v>0.65280000000000005</v>
+        <v>0.60140000000000005</v>
       </c>
       <c r="AE10">
-        <v>0.41925000000000001</v>
+        <v>0.39174999999999999</v>
       </c>
       <c r="AF10">
-        <v>0.77510000000000001</v>
+        <v>0.41649999999999998</v>
       </c>
       <c r="AG10">
-        <v>0.87924999999999998</v>
+        <v>0.39624999999999999</v>
       </c>
       <c r="AH10">
-        <v>0.16835</v>
+        <v>0.38479999999999998</v>
       </c>
       <c r="AI10">
-        <v>0.54330000000000001</v>
+        <v>0.61350000000000005</v>
       </c>
       <c r="AJ10">
-        <v>0.62865000000000004</v>
+        <v>0.45129999999999998</v>
       </c>
       <c r="AK10">
-        <v>0.70640000000000003</v>
+        <v>0.15010000000000001</v>
       </c>
       <c r="AL10">
-        <v>0.67179999999999995</v>
+        <v>0.49170000000000003</v>
       </c>
       <c r="AM10">
-        <v>0.64875000000000005</v>
+        <v>0.87814999999999999</v>
       </c>
       <c r="AN10">
-        <v>0.39369999999999999</v>
+        <v>0.71789999999999998</v>
       </c>
       <c r="AO10">
-        <v>0.60475000000000001</v>
+        <v>0.22675000000000001</v>
       </c>
       <c r="AP10">
-        <v>0.46984999999999999</v>
+        <v>0.56579999999999997</v>
       </c>
       <c r="AQ10">
-        <v>0.25935000000000002</v>
+        <v>0.41944999999999999</v>
       </c>
       <c r="AR10">
-        <v>0.58730000000000004</v>
+        <v>0.49919999999999998</v>
       </c>
       <c r="AS10">
-        <v>0.75854999999999995</v>
+        <v>0.48535</v>
       </c>
       <c r="AT10">
-        <v>0.76165000000000005</v>
+        <v>0.69884999999999997</v>
       </c>
       <c r="AU10">
-        <v>0.43709999999999999</v>
+        <v>9.1850000000000001E-2</v>
       </c>
       <c r="AV10">
-        <v>0.70084999999999997</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="AW10">
-        <v>0.33755000000000002</v>
+        <v>0.28434999999999999</v>
       </c>
       <c r="AX10">
-        <v>0.58940000000000003</v>
+        <v>0.20619999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.31309999999999999</v>
+        <v>0.62404999999999999</v>
       </c>
       <c r="B11">
-        <v>0.38090000000000002</v>
+        <v>0.58655000000000002</v>
       </c>
       <c r="C11">
-        <v>0.21995000000000001</v>
+        <v>0.67615000000000003</v>
       </c>
       <c r="D11">
-        <v>0.58660000000000001</v>
+        <v>0.70735000000000003</v>
       </c>
       <c r="E11">
-        <v>0.53549999999999998</v>
+        <v>0.69079999999999997</v>
       </c>
       <c r="F11">
-        <v>0.83755000000000002</v>
+        <v>0.74770000000000003</v>
       </c>
       <c r="G11">
-        <v>1.4E-2</v>
+        <v>0.66674999999999995</v>
       </c>
       <c r="H11">
-        <v>0.25024999999999997</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="I11">
-        <v>0.42465000000000003</v>
+        <v>0.5423</v>
       </c>
       <c r="J11">
-        <v>0.70269999999999999</v>
+        <v>0.37605</v>
       </c>
       <c r="K11">
-        <v>0.52459999999999996</v>
+        <v>0.26629999999999998</v>
       </c>
       <c r="L11">
-        <v>0.43955</v>
+        <v>0.43885000000000002</v>
       </c>
       <c r="M11">
-        <v>0.69074999999999998</v>
+        <v>0.77959999999999996</v>
       </c>
       <c r="N11">
-        <v>0.54815000000000003</v>
+        <v>0.48864999999999997</v>
       </c>
       <c r="O11">
-        <v>0.85324999999999995</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="P11">
-        <v>0.4158</v>
+        <v>0.1827</v>
       </c>
       <c r="Q11">
-        <v>0.22205</v>
+        <v>0.84135000000000004</v>
       </c>
       <c r="R11">
-        <v>0.70050000000000001</v>
+        <v>0.67210000000000003</v>
       </c>
       <c r="S11">
-        <v>0.35770000000000002</v>
+        <v>0.71109999999999995</v>
       </c>
       <c r="T11">
-        <v>0.56515000000000004</v>
+        <v>0.79625000000000001</v>
       </c>
       <c r="U11">
-        <v>0.91474999999999995</v>
+        <v>0.99644999999999995</v>
       </c>
       <c r="V11">
-        <v>0.60285</v>
+        <v>0.58409999999999995</v>
       </c>
       <c r="W11">
-        <v>0.53790000000000004</v>
+        <v>0.47</v>
       </c>
       <c r="X11">
-        <v>0.73740000000000006</v>
+        <v>0.64495000000000002</v>
       </c>
       <c r="Y11">
-        <v>0.63675000000000004</v>
+        <v>0.13405</v>
       </c>
       <c r="Z11">
-        <v>0.69035000000000002</v>
+        <v>0.69594999999999996</v>
       </c>
       <c r="AA11">
-        <v>0.73899999999999999</v>
+        <v>0.25164999999999998</v>
       </c>
       <c r="AB11">
-        <v>0.38469999999999999</v>
+        <v>0.58004999999999995</v>
       </c>
       <c r="AC11">
-        <v>0.74485000000000001</v>
+        <v>0.71040000000000003</v>
       </c>
       <c r="AD11">
-        <v>0.55295000000000005</v>
+        <v>0.5605</v>
       </c>
       <c r="AE11">
-        <v>0.42735000000000001</v>
+        <v>0.4556</v>
       </c>
       <c r="AF11">
-        <v>0.74345000000000006</v>
+        <v>0.32105</v>
       </c>
       <c r="AG11">
-        <v>0.85589999999999999</v>
+        <v>0.48349999999999999</v>
       </c>
       <c r="AH11">
-        <v>0.28055000000000002</v>
+        <v>0.48480000000000001</v>
       </c>
       <c r="AI11">
-        <v>0.52995000000000003</v>
+        <v>0.5847</v>
       </c>
       <c r="AJ11">
-        <v>0.54854999999999998</v>
+        <v>0.40475</v>
       </c>
       <c r="AK11">
-        <v>0.72445000000000004</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="AL11">
-        <v>0.74804999999999999</v>
+        <v>0.77529999999999999</v>
       </c>
       <c r="AM11">
-        <v>0.63995000000000002</v>
+        <v>0.96584999999999999</v>
       </c>
       <c r="AN11">
-        <v>0.33150000000000002</v>
+        <v>0.59045000000000003</v>
       </c>
       <c r="AO11">
-        <v>0.69679999999999997</v>
+        <v>0.30675000000000002</v>
       </c>
       <c r="AP11">
-        <v>0.42664999999999997</v>
+        <v>0.65549999999999997</v>
       </c>
       <c r="AQ11">
-        <v>0.24604999999999999</v>
+        <v>0.65905000000000002</v>
       </c>
       <c r="AR11">
-        <v>0.74704999999999999</v>
+        <v>0.53395000000000004</v>
       </c>
       <c r="AS11">
-        <v>0.59219999999999995</v>
+        <v>0.67230000000000001</v>
       </c>
       <c r="AT11">
-        <v>0.74819999999999998</v>
+        <v>0.63085000000000002</v>
       </c>
       <c r="AU11">
-        <v>0.30435000000000001</v>
+        <v>0.13915</v>
       </c>
       <c r="AV11">
-        <v>0.74255000000000004</v>
+        <v>0.57355</v>
       </c>
       <c r="AW11">
-        <v>0.46429999999999999</v>
+        <v>0.40244999999999997</v>
       </c>
       <c r="AX11">
-        <v>0.45169999999999999</v>
+        <v>0.1108</v>
       </c>
     </row>
   </sheetData>
